--- a/static/download/2023/RP3_APT_CDO_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_APT_CDO_2023_Jan_Dec.xlsx
@@ -1130,9 +1130,6 @@
   <borders count="6">
     <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1205,7 +1202,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1353,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>45305.0</v>
+        <v>45415.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -1436,11 +1433,10 @@
         <v>93464.0</v>
       </c>
       <c r="E6" s="21">
-        <v>14930.0</v>
+        <v>14821.0</v>
       </c>
       <c r="F6" s="22">
-        <f t="shared" ref="F6:F138" si="1">E6/D6</f>
-        <v>0.1597406488</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1457,11 +1453,10 @@
         <v>86868.0</v>
       </c>
       <c r="E7" s="21">
-        <v>19331.0</v>
+        <v>16890.0</v>
       </c>
       <c r="F7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2225330386</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -1478,11 +1473,10 @@
         <v>5952.0</v>
       </c>
       <c r="E8" s="21">
-        <v>1258.0</v>
+        <v>1248.0</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2113575269</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -1499,11 +1493,10 @@
         <v>1251.0</v>
       </c>
       <c r="E9" s="21">
-        <v>210.0</v>
+        <v>186.0</v>
       </c>
       <c r="F9" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1678657074</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1520,11 +1513,10 @@
         <v>214519.0</v>
       </c>
       <c r="E10" s="21">
-        <v>8541.0</v>
+        <v>8714.0</v>
       </c>
       <c r="F10" s="22">
-        <f t="shared" si="1"/>
-        <v>0.03981465511</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1541,11 +1533,10 @@
         <v>7885.0</v>
       </c>
       <c r="E11" s="21">
-        <v>1883.0</v>
+        <v>1619.0</v>
       </c>
       <c r="F11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.238807863</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1562,11 +1553,10 @@
         <v>56793.0</v>
       </c>
       <c r="E12" s="21">
-        <v>13743.0</v>
+        <v>13632.0</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2419840473</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1583,11 +1573,10 @@
         <v>57086.0</v>
       </c>
       <c r="E13" s="21">
-        <v>10171.0</v>
+        <v>10702.0</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1781697789</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1604,11 +1593,10 @@
         <v>75266.0</v>
       </c>
       <c r="E14" s="21">
-        <v>11878.0</v>
+        <v>13444.0</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="1"/>
-        <v>0.157813621</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1625,11 +1613,10 @@
         <v>149352.0</v>
       </c>
       <c r="E15" s="21">
-        <v>6959.0</v>
+        <v>7033.0</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0465946221</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -1646,11 +1633,10 @@
         <v>18758.0</v>
       </c>
       <c r="E16" s="21">
-        <v>2597.0</v>
+        <v>2429.0</v>
       </c>
       <c r="F16" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1384475957</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1667,11 +1653,10 @@
         <v>38099.0</v>
       </c>
       <c r="E17" s="21">
-        <v>5435.0</v>
+        <v>4778.0</v>
       </c>
       <c r="F17" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1426546629</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1688,11 +1673,10 @@
         <v>2418.0</v>
       </c>
       <c r="E18" s="21">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1220016543</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1709,11 +1693,10 @@
         <v>41052.0</v>
       </c>
       <c r="E19" s="21">
-        <v>3820.0</v>
+        <v>3621.0</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" si="1"/>
-        <v>0.09305271363</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1730,11 +1713,10 @@
         <v>22787.0</v>
       </c>
       <c r="E20" s="21">
-        <v>5841.0</v>
+        <v>5716.0</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2563303638</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1751,11 +1733,10 @@
         <v>10190.0</v>
       </c>
       <c r="E21" s="21">
-        <v>2456.0</v>
+        <v>2183.0</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2410206084</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1775,8 +1756,7 @@
         <v>11113.0</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6570296796</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1796,8 +1776,7 @@
         <v>84.0</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" si="1"/>
-        <v>0.488372093</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1817,8 +1796,7 @@
         <v>44764.0</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6334677705</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1838,8 +1816,7 @@
         <v>58240.0</v>
       </c>
       <c r="F25" s="22">
-        <f t="shared" si="1"/>
-        <v>0.255106287</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1859,8 +1836,7 @@
         <v>334.0</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1208830981</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1880,7 +1856,6 @@
         <v>671.0</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1901,8 +1876,7 @@
         <v>2192.0</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1784289784</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1922,8 +1896,7 @@
         <v>5336.0</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5016452007</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1943,8 +1916,7 @@
         <v>45356.0</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3791293299</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1964,8 +1936,7 @@
         <v>5576.0</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5063107237</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1985,8 +1956,7 @@
         <v>52230.0</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4606429422</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -2006,8 +1976,7 @@
         <v>11581.0</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3242433575</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -2027,8 +1996,7 @@
         <v>32680.0</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7341015792</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2048,8 +2016,7 @@
         <v>62450.0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5806493603</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -2069,8 +2036,7 @@
         <v>20062.0</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7757327353</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -2090,8 +2056,7 @@
         <v>19664.0</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" si="1"/>
-        <v>0.694080689</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2111,8 +2076,7 @@
         <v>692.0</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3696581197</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -2132,8 +2096,7 @@
         <v>10900.0</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4823649157</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -2153,8 +2116,7 @@
         <v>14640.0</v>
       </c>
       <c r="F40" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4531104921</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -2174,8 +2136,7 @@
         <v>7699.0</v>
       </c>
       <c r="F41" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3751766483</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -2195,8 +2156,7 @@
         <v>628.0</v>
       </c>
       <c r="F42" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4017914267</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -2216,8 +2176,7 @@
         <v>448.0</v>
       </c>
       <c r="F43" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3244026068</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2237,8 +2196,7 @@
         <v>6241.0</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6026458092</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2258,8 +2216,7 @@
         <v>4167.0</v>
       </c>
       <c r="F45" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3491704374</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -2279,8 +2236,7 @@
         <v>115.0</v>
       </c>
       <c r="F46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.224609375</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -2300,8 +2256,7 @@
         <v>2509.0</v>
       </c>
       <c r="F47" s="22">
-        <f t="shared" si="1"/>
-        <v>0.334176878</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -2321,8 +2276,7 @@
         <v>1382.0</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5201354912</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2342,8 +2296,7 @@
         <v>330.0</v>
       </c>
       <c r="F49" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4054054054</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2363,8 +2316,7 @@
         <v>36051.0</v>
       </c>
       <c r="F50" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4380810032</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2384,8 +2336,7 @@
         <v>4982.0</v>
       </c>
       <c r="F51" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3208191126</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2405,8 +2356,7 @@
         <v>212.0</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3674176776</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -2426,8 +2376,7 @@
         <v>43114.0</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4578704785</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -2447,8 +2396,7 @@
         <v>17.0</v>
       </c>
       <c r="F54" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3777777778</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -2468,8 +2416,7 @@
         <v>16854.0</v>
       </c>
       <c r="F55" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5895274406</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2482,16 +2429,9 @@
       <c r="C56" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F56" s="22">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="19" t="s">
@@ -2510,8 +2450,7 @@
         <v>26174.0</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4112951381</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -2531,8 +2470,7 @@
         <v>19399.0</v>
       </c>
       <c r="F58" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3876466239</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2552,8 +2490,7 @@
         <v>54327.0</v>
       </c>
       <c r="F59" s="22">
-        <f t="shared" si="1"/>
-        <v>0.342169904</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -2573,8 +2510,7 @@
         <v>13586.0</v>
       </c>
       <c r="F60" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3376746036</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -2594,8 +2530,7 @@
         <v>56336.0</v>
       </c>
       <c r="F61" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2903229131</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -2615,8 +2550,7 @@
         <v>40811.0</v>
       </c>
       <c r="F62" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5236812052</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2636,8 +2570,7 @@
         <v>41492.0</v>
       </c>
       <c r="F63" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3650279762</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2657,8 +2590,7 @@
         <v>113.0</v>
       </c>
       <c r="F64" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1931623932</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -2678,8 +2610,7 @@
         <v>97.0</v>
       </c>
       <c r="F65" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1341632089</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -2699,8 +2630,7 @@
         <v>9181.0</v>
       </c>
       <c r="F66" s="22">
-        <f t="shared" si="1"/>
-        <v>0.310147963</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -2720,8 +2650,7 @@
         <v>326.0</v>
       </c>
       <c r="F67" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1959134615</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2741,8 +2670,7 @@
         <v>468.0</v>
       </c>
       <c r="F68" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2216958787</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2762,8 +2690,7 @@
         <v>307.0</v>
       </c>
       <c r="F69" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1644349223</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2783,8 +2710,7 @@
         <v>831.0</v>
       </c>
       <c r="F70" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3306804616</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -2804,8 +2730,7 @@
         <v>11821.0</v>
       </c>
       <c r="F71" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3253605637</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -2825,8 +2750,7 @@
         <v>727.0</v>
       </c>
       <c r="F72" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2187782125</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -2846,8 +2770,7 @@
         <v>1607.0</v>
       </c>
       <c r="F73" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5195602974</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2867,8 +2790,7 @@
         <v>1361.0</v>
       </c>
       <c r="F74" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2325700615</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2888,8 +2810,7 @@
         <v>237.0</v>
       </c>
       <c r="F75" s="22">
-        <f t="shared" si="1"/>
-        <v>0.170995671</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2909,8 +2830,7 @@
         <v>121.0</v>
       </c>
       <c r="F76" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1139359699</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2930,8 +2850,7 @@
         <v>155.0</v>
       </c>
       <c r="F77" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1107142857</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2951,8 +2870,7 @@
         <v>2749.0</v>
       </c>
       <c r="F78" s="22">
-        <f t="shared" si="1"/>
-        <v>0.352978942</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2972,8 +2890,7 @@
         <v>899.0</v>
       </c>
       <c r="F79" s="22">
-        <f t="shared" si="1"/>
-        <v>0.298274718</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2993,8 +2910,7 @@
         <v>2117.0</v>
       </c>
       <c r="F80" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3775637596</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -3014,8 +2930,7 @@
         <v>2875.0</v>
       </c>
       <c r="F81" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3520264479</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -3035,8 +2950,7 @@
         <v>281.0</v>
       </c>
       <c r="F82" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08033161807</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -3056,8 +2970,7 @@
         <v>820.0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2370627349</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -3077,8 +2990,7 @@
         <v>11163.0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2508652074</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -3098,8 +3010,7 @@
         <v>227.0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1340815121</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -3119,8 +3030,7 @@
         <v>517.0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1769941801</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -3140,8 +3050,7 @@
         <v>112.0</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1060606061</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -3161,8 +3070,7 @@
         <v>371.0</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08869232608</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -3182,8 +3090,7 @@
         <v>569.0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="1"/>
-        <v>0.07908269632</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
@@ -3203,8 +3110,7 @@
         <v>82.0</v>
       </c>
       <c r="F90" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1355371901</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
@@ -3224,8 +3130,7 @@
         <v>285.0</v>
       </c>
       <c r="F91" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2157456472</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -3245,8 +3150,7 @@
         <v>482.0</v>
       </c>
       <c r="F92" s="22">
-        <f t="shared" si="1"/>
-        <v>0.236043095</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -3266,8 +3170,7 @@
         <v>10805.0</v>
       </c>
       <c r="F93" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2174919485</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
@@ -3287,8 +3190,7 @@
         <v>10160.0</v>
       </c>
       <c r="F94" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1397524072</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
@@ -3308,8 +3210,7 @@
         <v>1462.0</v>
       </c>
       <c r="F95" s="22">
-        <f t="shared" si="1"/>
-        <v>0.346363421</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
@@ -3329,8 +3230,7 @@
         <v>2772.0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2640502953</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
@@ -3350,8 +3250,7 @@
         <v>617.0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2399844419</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
@@ -3371,8 +3270,7 @@
         <v>437.0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1382911392</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -3392,8 +3290,7 @@
         <v>1064.0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="1"/>
-        <v>0.06226956166</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
@@ -3413,8 +3310,7 @@
         <v>286.0</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1981981982</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
@@ -3434,8 +3330,7 @@
         <v>385.0</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2544613351</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
@@ -3455,8 +3350,7 @@
         <v>432.0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2588376273</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
@@ -3476,8 +3370,7 @@
         <v>179.0</v>
       </c>
       <c r="F103" s="22">
-        <f t="shared" si="1"/>
-        <v>0.00618670722</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
@@ -3497,8 +3390,7 @@
         <v>5806.0</v>
       </c>
       <c r="F104" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0256209981</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
@@ -3518,8 +3410,7 @@
         <v>242.0</v>
       </c>
       <c r="F105" s="22">
-        <f t="shared" si="1"/>
-        <v>0.05240363794</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
@@ -3539,8 +3430,7 @@
         <v>4074.0</v>
       </c>
       <c r="F106" s="22">
-        <f t="shared" si="1"/>
-        <v>0.03909151098</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -3560,8 +3450,7 @@
         <v>1665.0</v>
       </c>
       <c r="F107" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1984268859</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -3581,8 +3470,7 @@
         <v>1992.0</v>
       </c>
       <c r="F108" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3387179051</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -3602,8 +3490,7 @@
         <v>144.0</v>
       </c>
       <c r="F109" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1466395112</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -3623,8 +3510,7 @@
         <v>158.0</v>
       </c>
       <c r="F110" s="22">
-        <f t="shared" si="1"/>
-        <v>0.115497076</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
@@ -3644,8 +3530,7 @@
         <v>491.0</v>
       </c>
       <c r="F111" s="22">
-        <f t="shared" si="1"/>
-        <v>0.327989312</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
@@ -3665,8 +3550,7 @@
         <v>206.0</v>
       </c>
       <c r="F112" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0814229249</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
@@ -3686,8 +3570,7 @@
         <v>2550.0</v>
       </c>
       <c r="F113" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4465849387</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
@@ -3707,8 +3590,7 @@
         <v>184.0</v>
       </c>
       <c r="F114" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1841841842</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
@@ -3728,8 +3610,7 @@
         <v>6591.0</v>
       </c>
       <c r="F115" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2611538157</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
@@ -3749,8 +3630,7 @@
         <v>350.0</v>
       </c>
       <c r="F116" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2579218865</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
@@ -3770,8 +3650,7 @@
         <v>4856.0</v>
       </c>
       <c r="F117" s="22">
-        <f t="shared" si="1"/>
-        <v>0.138885711</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
@@ -3791,8 +3670,7 @@
         <v>372.0</v>
       </c>
       <c r="F118" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2576177285</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
@@ -3812,8 +3690,7 @@
         <v>752.0</v>
       </c>
       <c r="F119" s="22">
-        <f t="shared" si="1"/>
-        <v>0.131147541</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
@@ -3833,8 +3710,7 @@
         <v>866.0</v>
       </c>
       <c r="F120" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1819327731</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
@@ -3854,8 +3730,7 @@
         <v>486.0</v>
       </c>
       <c r="F121" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2064570943</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
@@ -3875,8 +3750,7 @@
         <v>44896.0</v>
       </c>
       <c r="F122" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3824321101</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
@@ -3896,8 +3770,7 @@
         <v>14264.0</v>
       </c>
       <c r="F123" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2679238904</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
@@ -3917,8 +3790,7 @@
         <v>15640.0</v>
       </c>
       <c r="F124" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1554718332</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
@@ -3938,8 +3810,7 @@
         <v>13081.0</v>
       </c>
       <c r="F125" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2581402692</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -3959,8 +3830,7 @@
         <v>10091.0</v>
       </c>
       <c r="F126" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1844418855</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
@@ -3980,8 +3850,7 @@
         <v>12554.0</v>
       </c>
       <c r="F127" s="22">
-        <f t="shared" si="1"/>
-        <v>0.29186525</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
@@ -4001,8 +3870,7 @@
         <v>40161.0</v>
       </c>
       <c r="F128" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3023306584</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
@@ -4022,8 +3890,7 @@
         <v>13037.0</v>
       </c>
       <c r="F129" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2309804755</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
@@ -4043,8 +3910,7 @@
         <v>14599.0</v>
       </c>
       <c r="F130" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5031015232</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
@@ -4064,8 +3930,7 @@
         <v>1388.0</v>
       </c>
       <c r="F131" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1998560115</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
@@ -4085,8 +3950,7 @@
         <v>1119.0</v>
       </c>
       <c r="F132" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1430580414</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
@@ -4106,8 +3970,7 @@
         <v>751.0</v>
       </c>
       <c r="F133" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3126561199</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
@@ -4127,8 +3990,7 @@
         <v>1158.0</v>
       </c>
       <c r="F134" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2541703248</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
@@ -4148,8 +4010,7 @@
         <v>1729.0</v>
       </c>
       <c r="F135" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1379998404</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
@@ -4169,8 +4030,7 @@
         <v>35181.0</v>
       </c>
       <c r="F136" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2997750473</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
@@ -4190,8 +4050,7 @@
         <v>1185.0</v>
       </c>
       <c r="F137" s="22">
-        <f t="shared" si="1"/>
-        <v>0.8212058212</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
@@ -4211,8 +4070,7 @@
         <v>898.0</v>
       </c>
       <c r="F138" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2800998129</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
@@ -4246,8 +4104,7 @@
         <v>20019.0</v>
       </c>
       <c r="F140" s="22">
-        <f t="shared" ref="F140:F150" si="2">E140/D140</f>
-        <v>0.6074831583</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
@@ -4267,8 +4124,7 @@
         <v>174.0</v>
       </c>
       <c r="F141" s="22">
-        <f t="shared" si="2"/>
-        <v>0.9613259669</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
@@ -4288,8 +4144,7 @@
         <v>8724.0</v>
       </c>
       <c r="F142" s="22">
-        <f t="shared" si="2"/>
-        <v>0.5538695956</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
@@ -4309,8 +4164,7 @@
         <v>8464.0</v>
       </c>
       <c r="F143" s="22">
-        <f t="shared" si="2"/>
-        <v>0.6966828546</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
@@ -4330,8 +4184,7 @@
         <v>23356.0</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" si="2"/>
-        <v>0.4500626265</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
@@ -4351,8 +4204,7 @@
         <v>647.0</v>
       </c>
       <c r="F145" s="22">
-        <f t="shared" si="2"/>
-        <v>0.4760853569</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
@@ -4372,8 +4224,7 @@
         <v>58289.0</v>
       </c>
       <c r="F146" s="22">
-        <f t="shared" si="2"/>
-        <v>0.5161058969</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
@@ -4393,8 +4244,7 @@
         <v>613.0</v>
       </c>
       <c r="F147" s="22">
-        <f t="shared" si="2"/>
-        <v>0.2766245487</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
@@ -4414,8 +4264,7 @@
         <v>22411.0</v>
       </c>
       <c r="F148" s="22">
-        <f t="shared" si="2"/>
-        <v>0.4105932359</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
@@ -4435,8 +4284,7 @@
         <v>13723.0</v>
       </c>
       <c r="F149" s="22">
-        <f t="shared" si="2"/>
-        <v>0.1664140281</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
@@ -4456,8 +4304,7 @@
         <v>22710.0</v>
       </c>
       <c r="F150" s="22">
-        <f t="shared" si="2"/>
-        <v>0.1876363276</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1"/>
